--- a/Plan_QuanLyBanDienThoaiDiDong.xlsx
+++ b/Plan_QuanLyBanDienThoaiDiDong.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Vi\Documents\GitHub\QuanLyBanDienThoaiDiDong\QuanLyBanDienThoaiDiDong\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Tasks</t>
   </si>
@@ -58,21 +63,6 @@
     <t>DB Development</t>
   </si>
   <si>
-    <t>API Development</t>
-  </si>
-  <si>
-    <t>UI Client</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Dev. Complete</t>
-  </si>
-  <si>
-    <t>Hardware Config.</t>
-  </si>
-  <si>
     <t>System Testing</t>
   </si>
   <si>
@@ -209,15 +199,6 @@
   </si>
   <si>
     <t>Connect DB</t>
-  </si>
-  <si>
-    <t>Insert/Update/Query</t>
-  </si>
-  <si>
-    <t>Function 1</t>
-  </si>
-  <si>
-    <t>Function 2,…</t>
   </si>
   <si>
     <t>Team leader</t>
@@ -271,7 +252,34 @@
     <t>team</t>
   </si>
   <si>
-    <t>9/31/2016</t>
+    <t>Insert DB</t>
+  </si>
+  <si>
+    <t>Class Dien Thoai</t>
+  </si>
+  <si>
+    <t>Ng.P.Q.Thắng</t>
+  </si>
+  <si>
+    <t>Class Nha San Xuat</t>
+  </si>
+  <si>
+    <t>From Giao Dien</t>
+  </si>
+  <si>
+    <t>Them Dien Thoai</t>
+  </si>
+  <si>
+    <t>Sua Dien Thoai</t>
+  </si>
+  <si>
+    <t>Xoa Dien Thoai</t>
+  </si>
+  <si>
+    <t>Connect WS</t>
+  </si>
+  <si>
+    <t>In-program</t>
   </si>
 </sst>
 </file>
@@ -282,7 +290,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -330,16 +338,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -447,7 +464,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -457,9 +474,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,7 +516,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -523,6 +537,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -537,6 +560,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -615,28 +643,28 @@
                   <c:v>Connect DB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Insert/Update/Query</c:v>
+                  <c:v>Insert DB</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>API Development</c:v>
+                  <c:v>Class Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Function 1</c:v>
+                  <c:v>Class Nha San Xuat</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Function 2,…</c:v>
+                  <c:v>From Giao Dien</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI Client</c:v>
+                  <c:v>Them Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Testing</c:v>
+                  <c:v>Sua Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
+                  <c:v>Xoa Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Hardware Config.</c:v>
+                  <c:v>Connect WS</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>System Testing</c:v>
@@ -654,49 +682,49 @@
                 <c:formatCode>m/d;@</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>42610</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42610</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42610</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42610</c:v>
+                  <c:v>42630</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42613</c:v>
+                  <c:v>42631</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42614</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42619</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42622</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42626</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42626</c:v>
+                  <c:v>42637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42632</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42632</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42632</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42632</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42632</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42653</c:v>
@@ -894,28 +922,28 @@
                   <c:v>Connect DB</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Insert/Update/Query</c:v>
+                  <c:v>Insert DB</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>API Development</c:v>
+                  <c:v>Class Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Function 1</c:v>
+                  <c:v>Class Nha San Xuat</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Function 2,…</c:v>
+                  <c:v>From Giao Dien</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI Client</c:v>
+                  <c:v>Them Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Testing</c:v>
+                  <c:v>Sua Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
+                  <c:v>Xoa Dien Thoai</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Hardware Config.</c:v>
+                  <c:v>Connect WS</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>System Testing</c:v>
@@ -933,22 +961,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3</c:v>
@@ -957,25 +985,25 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -994,11 +1022,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="230018048"/>
-        <c:axId val="230019840"/>
+        <c:axId val="-314320912"/>
+        <c:axId val="-314323632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="230018048"/>
+        <c:axId val="-314320912"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1008,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230019840"/>
+        <c:crossAx val="-314323632"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1016,7 +1044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="230019840"/>
+        <c:axId val="-314323632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1028,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="230018048"/>
+        <c:crossAx val="-314320912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1404,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1418,32 +1446,32 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>75</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>76</v>
+        <v>16</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1454,27 +1482,27 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="13">
-        <v>42610</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="12">
+        <v>42628</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="13">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12">
         <v>42291</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="14">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
         <v>0.2</v>
       </c>
       <c r="C9" s="1"/>
@@ -1485,22 +1513,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1509,20 +1537,20 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="7">
-        <v>42610</v>
-      </c>
-      <c r="D12" s="7">
-        <v>42610</v>
+        <v>68</v>
+      </c>
+      <c r="C12" s="6">
+        <v>42628</v>
+      </c>
+      <c r="D12" s="6">
+        <v>42629</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" ref="E12:E21" si="0">D12-C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1530,317 +1558,317 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="7">
-        <v>42610</v>
-      </c>
-      <c r="D13" s="7">
-        <v>42610</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="6">
+        <v>42629</v>
+      </c>
+      <c r="D13" s="6">
+        <v>42629</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
+      <c r="F13" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="7">
-        <v>42610</v>
-      </c>
-      <c r="D14" s="7">
-        <v>42612</v>
+        <v>68</v>
+      </c>
+      <c r="C14" s="6">
+        <v>42630</v>
+      </c>
+      <c r="D14" s="6">
+        <v>42631</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="7">
-        <v>42610</v>
-      </c>
-      <c r="D15" s="7">
-        <v>42613</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="6">
+        <v>42630</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42631</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="7">
-        <v>42613</v>
-      </c>
-      <c r="D16" s="7">
-        <v>42617</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42631</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42633</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>61</v>
+      <c r="A17" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="7">
-        <v>42614</v>
-      </c>
-      <c r="D17" s="7">
-        <v>42618</v>
+        <v>69</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42633</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42634</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>62</v>
+      <c r="A18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="7">
-        <v>42619</v>
-      </c>
-      <c r="D18" s="7">
-        <v>42622</v>
+        <v>70</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42634</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42637</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>19</v>
+      <c r="F18" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>11</v>
+      <c r="A19" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42622</v>
-      </c>
-      <c r="D19" s="7">
-        <v>42625</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42634</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42637</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>19</v>
+      <c r="F19" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>63</v>
+      <c r="A20" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="7">
-        <v>42626</v>
-      </c>
-      <c r="D20" s="7">
-        <v>42631</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42634</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42637</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>64</v>
+      <c r="A21" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="7">
-        <v>42626</v>
-      </c>
-      <c r="D21" s="7">
-        <v>42631</v>
+        <v>68</v>
+      </c>
+      <c r="C21" s="6">
+        <v>42637</v>
+      </c>
+      <c r="D21" s="6">
+        <v>42639</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>12</v>
+      <c r="A22" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="7">
-        <v>42632</v>
-      </c>
-      <c r="D22" s="7">
-        <v>42643</v>
+        <v>74</v>
+      </c>
+      <c r="C22" s="6">
+        <v>42642</v>
+      </c>
+      <c r="D22" s="6">
+        <v>42647</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ref="E22:E24" si="1">D22-C22</f>
-        <v>11</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
+      <c r="A23" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="6">
+        <v>42642</v>
+      </c>
+      <c r="D23" s="6">
+        <v>42647</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="7">
-        <v>42632</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="7">
-        <v>42632</v>
-      </c>
-      <c r="D24" s="7">
-        <v>42646</v>
+        <v>70</v>
+      </c>
+      <c r="C24" s="6">
+        <v>42642</v>
+      </c>
+      <c r="D24" s="6">
+        <v>42647</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
+      <c r="A25" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="7">
-        <v>42632</v>
-      </c>
-      <c r="D25" s="7">
+        <v>71</v>
+      </c>
+      <c r="C25" s="6">
+        <v>42647</v>
+      </c>
+      <c r="D25" s="6">
         <v>42648</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
-        <v>16</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>16</v>
+      <c r="A26" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="7">
-        <v>42632</v>
-      </c>
-      <c r="D26" s="7">
-        <v>42656</v>
+        <v>71</v>
+      </c>
+      <c r="C26" s="6">
+        <v>42648</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42653</v>
       </c>
       <c r="E26" s="3">
         <f>D26-C26</f>
-        <v>24</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="27">
+      <c r="A27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="26">
         <v>42653</v>
       </c>
-      <c r="D27" s="27">
+      <c r="D27" s="26">
         <v>42653</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <f>D27-C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="29.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1866,95 +1894,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="22" t="s">
-        <v>30</v>
+      <c r="A1" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
+      <c r="A3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78.75">
-      <c r="A4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="49.5" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="49.5" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="51.75" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1991,129 +2019,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="22" t="s">
-        <v>38</v>
+      <c r="A1" s="21" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>0.5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>2800</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>3500</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>3600</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2145,168 +2173,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="B4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="16" t="s">
+      <c r="B5" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
